--- a/Panel Rorativo Con visitas.xlsx
+++ b/Panel Rorativo Con visitas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\CEPAL 2022\Costa Rica\CRIsieh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7877D454-A7E2-4B9A-A0A0-B7B0AE5DC12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A4817A-1045-43C0-9527-1B31DBD0D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="149">
   <si>
     <t>A</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>24 sobre 15 = 8 / 5</t>
+  </si>
+  <si>
+    <t>6 sobre 15</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,6 +671,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,7 +1016,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,6 +1117,9 @@
       <c r="O2" s="17" t="s">
         <v>29</v>
       </c>
+      <c r="Q2" s="23" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -1157,9 +1167,6 @@
       <c r="O3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q3">
-        <v>24</v>
-      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1348,9 +1355,6 @@
       <c r="O7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q7">
-        <v>24</v>
-      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -1453,7 +1457,7 @@
       <c r="B10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -1465,10 +1469,10 @@
       <c r="F10" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="20" t="s">
         <v>52</v>
       </c>
       <c r="I10" s="16" t="s">
@@ -1480,10 +1484,10 @@
       <c r="K10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="20" t="s">
         <v>53</v>
       </c>
       <c r="N10" s="16" t="s">
@@ -1492,16 +1496,12 @@
       <c r="O10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q10">
-        <f>24/15</f>
-        <v>1.6</v>
-      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1513,10 +1513,10 @@
       <c r="E11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="10" t="s">
         <v>55</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -1528,10 +1528,10 @@
       <c r="J11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="10" t="s">
         <v>56</v>
       </c>
       <c r="M11" s="7" t="s">
@@ -1545,7 +1545,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1557,10 +1557,10 @@
       <c r="D12" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="7" t="s">
@@ -1572,10 +1572,10 @@
       <c r="I12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="10" t="s">
         <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
@@ -1587,7 +1587,7 @@
       <c r="N12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="8" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1601,10 +1601,10 @@
       <c r="C13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="22" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="12" t="s">
@@ -1616,10 +1616,10 @@
       <c r="H13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="22" t="s">
         <v>61</v>
       </c>
       <c r="K13" s="13" t="s">
@@ -1631,10 +1631,10 @@
       <c r="M13" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="14" t="s">
+      <c r="O13" s="22" t="s">
         <v>62</v>
       </c>
     </row>
